--- a/com.week15.final/changes_of_closed_price(20.06.07~21.06.06).xlsx
+++ b/com.week15.final/changes_of_closed_price(20.06.07~21.06.06).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-repositories\inu_algorithm\com.week15.final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09690DB7-D39F-4535-9994-AE684F1F4E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AFB872-D628-4E6C-8D77-EEEA4D669D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{EEBA0A6B-94BC-42E6-9F1F-9FC10B055823}"/>
   </bookViews>
@@ -63,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -291,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,6 +341,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,7 +982,677 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>종가</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44241</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44248</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44283</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44318</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44325</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44332</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44339</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44346</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>_("₩"* #,##0_);_("₩"* \(#,##0\);_("₩"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>53200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>71500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>74600</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>77900</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74900</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>77900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>86800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>88200</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97900</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94200</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96200</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111600</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>119000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>117500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>113500</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>114500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>122000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>126000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2714-45E6-9724-1419C1D3D115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1655663488"/>
+        <c:axId val="1655665152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1655663488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655665152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1655665152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;₩&quot;* #,##0_);_(&quot;₩&quot;* \(#,##0\);_(&quot;₩&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1655663488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1526,6 +2208,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1559,6 +2757,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27698E8-089A-4813-8195-93F96BF57935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1864,17 +3098,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1523F665-CF8B-47B3-BCB7-42AB00ADEC0E}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -2478,6 +3712,9 @@
       <c r="C55" s="3">
         <v>126000</v>
       </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C56" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
